--- a/Tabelas Relatório IS.xlsx
+++ b/Tabelas Relatório IS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaom\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duarte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9237AB5B-FA50-4D31-AD38-C81E74EE439D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="720" windowWidth="14400" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,10 +118,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,16 +402,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="62" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -422,7 +422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -478,7 +478,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -534,7 +534,7 @@
         <v>564957</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -590,7 +590,7 @@
         <v>557553</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -646,7 +646,7 @@
         <v>560068</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -702,7 +702,7 @@
         <v>561427</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -758,7 +758,7 @@
         <v>580588</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -814,7 +814,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -870,7 +870,7 @@
         <v>130339</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -926,7 +926,7 @@
         <v>126190</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -982,7 +982,7 @@
         <v>158704</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>160613</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>124968</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>2781599</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>2123577</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>2162410</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>2162271</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>2124945</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>120494</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>188485</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>3</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>824021</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>764935</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>5</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>816047</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>0</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -1770,10 +1770,18 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="F41" s="2">
+        <v>1590</v>
+      </c>
+      <c r="G41" s="2">
+        <v>6233</v>
+      </c>
+      <c r="H41" s="2">
+        <v>10496</v>
+      </c>
+      <c r="I41" s="2">
+        <v>17114</v>
+      </c>
       <c r="N41" s="2">
         <v>1</v>
       </c>
@@ -1783,12 +1791,20 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S41" s="2">
+        <v>38561</v>
+      </c>
+      <c r="T41" s="2">
+        <v>37782</v>
+      </c>
+      <c r="U41" s="2">
+        <v>42085</v>
+      </c>
+      <c r="V41" s="2">
+        <v>46470</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2</v>
       </c>
@@ -1796,10 +1812,18 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="F42" s="2">
+        <v>966</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1672</v>
+      </c>
+      <c r="H42" s="2">
+        <v>10408</v>
+      </c>
+      <c r="I42" s="2">
+        <v>17107</v>
+      </c>
       <c r="N42" s="2">
         <v>2</v>
       </c>
@@ -1807,12 +1831,20 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S42" s="2">
+        <v>39932</v>
+      </c>
+      <c r="T42" s="2">
+        <v>36408</v>
+      </c>
+      <c r="U42" s="2">
+        <v>42673</v>
+      </c>
+      <c r="V42" s="2">
+        <v>41116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>3</v>
       </c>
@@ -1820,10 +1852,18 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="F43" s="2">
+        <v>1041</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1097</v>
+      </c>
+      <c r="H43" s="2">
+        <v>10399</v>
+      </c>
+      <c r="I43" s="2">
+        <v>17196</v>
+      </c>
       <c r="N43" s="2">
         <v>3</v>
       </c>
@@ -1831,12 +1871,20 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S43" s="2">
+        <v>35911</v>
+      </c>
+      <c r="T43" s="2">
+        <v>38903</v>
+      </c>
+      <c r="U43" s="2">
+        <v>38478</v>
+      </c>
+      <c r="V43" s="2">
+        <v>42328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>4</v>
       </c>
@@ -1844,10 +1892,18 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="F44" s="2">
+        <v>977</v>
+      </c>
+      <c r="G44" s="2">
+        <v>407</v>
+      </c>
+      <c r="H44" s="2">
+        <v>10305</v>
+      </c>
+      <c r="I44" s="2">
+        <v>17302</v>
+      </c>
       <c r="N44" s="2">
         <v>4</v>
       </c>
@@ -1855,12 +1911,20 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S44" s="2">
+        <v>34951</v>
+      </c>
+      <c r="T44" s="2">
+        <v>40298</v>
+      </c>
+      <c r="U44" s="2">
+        <v>37710</v>
+      </c>
+      <c r="V44" s="2">
+        <v>42204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>5</v>
       </c>
@@ -1868,10 +1932,18 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="F45" s="2">
+        <v>943</v>
+      </c>
+      <c r="G45" s="2">
+        <v>384</v>
+      </c>
+      <c r="H45" s="2">
+        <v>10320</v>
+      </c>
+      <c r="I45" s="2">
+        <v>17628</v>
+      </c>
       <c r="N45" s="2">
         <v>5</v>
       </c>
@@ -1879,12 +1951,20 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S45" s="2">
+        <v>38333</v>
+      </c>
+      <c r="T45" s="2">
+        <v>38256</v>
+      </c>
+      <c r="U45" s="2">
+        <v>45578</v>
+      </c>
+      <c r="V45" s="2">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>8</v>
       </c>
@@ -1892,7 +1972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -1948,7 +2028,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -1958,10 +2038,18 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="F50" s="2">
+        <v>18700</v>
+      </c>
+      <c r="G50" s="2">
+        <v>26053</v>
+      </c>
+      <c r="H50" s="2">
+        <v>33352</v>
+      </c>
+      <c r="I50" s="2">
+        <v>44839</v>
+      </c>
       <c r="N50" s="2">
         <v>1</v>
       </c>
@@ -1971,12 +2059,20 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S50" s="2">
+        <v>4142</v>
+      </c>
+      <c r="T50" s="2">
+        <v>4731</v>
+      </c>
+      <c r="U50" s="2">
+        <v>5811</v>
+      </c>
+      <c r="V50" s="2">
+        <v>7526</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>2</v>
       </c>
@@ -1984,10 +2080,18 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+      <c r="F51" s="2">
+        <v>2740</v>
+      </c>
+      <c r="G51" s="2">
+        <v>4434</v>
+      </c>
+      <c r="H51" s="2">
+        <v>32693</v>
+      </c>
+      <c r="I51" s="2">
+        <v>44177</v>
+      </c>
       <c r="N51" s="2">
         <v>2</v>
       </c>
@@ -1995,12 +2099,20 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S51" s="2">
+        <v>4119</v>
+      </c>
+      <c r="T51" s="2">
+        <v>4870</v>
+      </c>
+      <c r="U51" s="2">
+        <v>5879</v>
+      </c>
+      <c r="V51" s="2">
+        <v>7580</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>3</v>
       </c>
@@ -2008,10 +2120,18 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="F52" s="2">
+        <v>2502</v>
+      </c>
+      <c r="G52" s="2">
+        <v>3433</v>
+      </c>
+      <c r="H52" s="2">
+        <v>32007</v>
+      </c>
+      <c r="I52" s="2">
+        <v>42667</v>
+      </c>
       <c r="N52" s="2">
         <v>3</v>
       </c>
@@ -2019,12 +2139,20 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S52" s="2">
+        <v>4135</v>
+      </c>
+      <c r="T52" s="2">
+        <v>4790</v>
+      </c>
+      <c r="U52" s="2">
+        <v>5743</v>
+      </c>
+      <c r="V52" s="2">
+        <v>7028</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>4</v>
       </c>
@@ -2032,10 +2160,18 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="F53" s="2">
+        <v>2245</v>
+      </c>
+      <c r="G53" s="2">
+        <v>2090</v>
+      </c>
+      <c r="H53" s="2">
+        <v>33161</v>
+      </c>
+      <c r="I53" s="2">
+        <v>43335</v>
+      </c>
       <c r="N53" s="2">
         <v>4</v>
       </c>
@@ -2043,12 +2179,20 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S53" s="2">
+        <v>4152</v>
+      </c>
+      <c r="T53" s="2">
+        <v>4813</v>
+      </c>
+      <c r="U53" s="2">
+        <v>5922</v>
+      </c>
+      <c r="V53" s="2">
+        <v>7362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>5</v>
       </c>
@@ -2056,10 +2200,18 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="F54" s="2">
+        <v>2003</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1391</v>
+      </c>
+      <c r="H54" s="2">
+        <v>35912</v>
+      </c>
+      <c r="I54" s="2">
+        <v>43456</v>
+      </c>
       <c r="N54" s="2">
         <v>5</v>
       </c>
@@ -2067,12 +2219,20 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S54" s="2">
+        <v>4176</v>
+      </c>
+      <c r="T54" s="2">
+        <v>5149</v>
+      </c>
+      <c r="U54" s="2">
+        <v>5917</v>
+      </c>
+      <c r="V54" s="2">
+        <v>7372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>3</v>
       </c>
@@ -2080,7 +2240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
@@ -2136,7 +2296,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -2146,10 +2306,18 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="F59" s="2">
+        <v>9312</v>
+      </c>
+      <c r="G59" s="2">
+        <v>6233</v>
+      </c>
+      <c r="H59" s="2">
+        <v>13119</v>
+      </c>
+      <c r="I59" s="2">
+        <v>16821</v>
+      </c>
       <c r="N59" s="2">
         <v>1</v>
       </c>
@@ -2159,12 +2327,20 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S59" s="2">
+        <v>800424</v>
+      </c>
+      <c r="T59" s="2">
+        <v>805175</v>
+      </c>
+      <c r="U59" s="2">
+        <v>883330</v>
+      </c>
+      <c r="V59" s="2">
+        <v>850585</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>2</v>
       </c>
@@ -2172,10 +2348,18 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="F60" s="2">
+        <v>553</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1040</v>
+      </c>
+      <c r="H60" s="2">
+        <v>12835</v>
+      </c>
+      <c r="I60" s="2">
+        <v>16120</v>
+      </c>
       <c r="N60" s="2">
         <v>2</v>
       </c>
@@ -2183,12 +2367,20 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S60" s="2">
+        <v>643701</v>
+      </c>
+      <c r="T60" s="2">
+        <v>633588</v>
+      </c>
+      <c r="U60" s="2">
+        <v>844258</v>
+      </c>
+      <c r="V60" s="2">
+        <v>841710</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>3</v>
       </c>
@@ -2196,10 +2388,18 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="F61" s="2">
+        <v>227</v>
+      </c>
+      <c r="G61" s="2">
+        <v>654</v>
+      </c>
+      <c r="H61" s="2">
+        <v>12421</v>
+      </c>
+      <c r="I61" s="2">
+        <v>15047</v>
+      </c>
       <c r="N61" s="2">
         <v>3</v>
       </c>
@@ -2207,12 +2407,20 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S61" s="2">
+        <v>657475</v>
+      </c>
+      <c r="T61" s="2">
+        <v>663476</v>
+      </c>
+      <c r="U61" s="2">
+        <v>825944</v>
+      </c>
+      <c r="V61" s="2">
+        <v>834305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>4</v>
       </c>
@@ -2220,10 +2428,18 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+      <c r="F62" s="2">
+        <v>260</v>
+      </c>
+      <c r="G62" s="2">
+        <v>501</v>
+      </c>
+      <c r="H62" s="2">
+        <v>13349</v>
+      </c>
+      <c r="I62" s="2">
+        <v>15280</v>
+      </c>
       <c r="N62" s="2">
         <v>4</v>
       </c>
@@ -2231,12 +2447,20 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="S62" s="2">
+        <v>651661</v>
+      </c>
+      <c r="T62" s="2">
+        <v>648536</v>
+      </c>
+      <c r="U62" s="2">
+        <v>816126</v>
+      </c>
+      <c r="V62" s="2">
+        <v>830899</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>5</v>
       </c>
@@ -2244,10 +2468,18 @@
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="F63" s="2">
+        <v>160</v>
+      </c>
+      <c r="G63" s="2">
+        <v>213</v>
+      </c>
+      <c r="H63" s="2">
+        <v>14499</v>
+      </c>
+      <c r="I63" s="2">
+        <v>15204</v>
+      </c>
       <c r="N63" s="2">
         <v>5</v>
       </c>
@@ -2255,17 +2487,25 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="S63" s="2">
+        <v>674228</v>
+      </c>
+      <c r="T63" s="2">
+        <v>671995</v>
+      </c>
+      <c r="U63" s="2">
+        <v>904180</v>
+      </c>
+      <c r="V63" s="2">
+        <v>841676</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>11</v>
       </c>
@@ -2295,7 +2535,7 @@
       </c>
       <c r="W67" s="1"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>1</v>
       </c>
@@ -2305,12 +2545,20 @@
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="F68" s="2">
+        <v>2915</v>
+      </c>
+      <c r="G68" s="2">
+        <v>3456</v>
+      </c>
+      <c r="H68" s="2">
+        <v>4179</v>
+      </c>
+      <c r="I68" s="2">
+        <v>5522</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>2</v>
       </c>
@@ -2318,12 +2566,20 @@
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="F69" s="2">
+        <v>378</v>
+      </c>
+      <c r="G69" s="2">
+        <v>647</v>
+      </c>
+      <c r="H69" s="2">
+        <v>4131</v>
+      </c>
+      <c r="I69" s="2">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>3</v>
       </c>
@@ -2331,10 +2587,18 @@
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+      <c r="F70" s="2">
+        <v>302</v>
+      </c>
+      <c r="G70" s="2">
+        <v>545</v>
+      </c>
+      <c r="H70" s="2">
+        <v>4081</v>
+      </c>
+      <c r="I70" s="2">
+        <v>5293</v>
+      </c>
       <c r="R70" s="2" t="s">
         <v>5</v>
       </c>
@@ -2363,7 +2627,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>4</v>
       </c>
@@ -2371,10 +2635,18 @@
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+      <c r="F71" s="2">
+        <v>196</v>
+      </c>
+      <c r="G71" s="2">
+        <v>326</v>
+      </c>
+      <c r="H71" s="2">
+        <v>4057</v>
+      </c>
+      <c r="I71" s="2">
+        <v>5719</v>
+      </c>
       <c r="R71" s="2" t="s">
         <v>6</v>
       </c>
@@ -2387,7 +2659,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>5</v>
       </c>
@@ -2395,10 +2667,18 @@
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+      <c r="F72" s="2">
+        <v>136</v>
+      </c>
+      <c r="G72" s="2">
+        <v>198</v>
+      </c>
+      <c r="H72" s="2">
+        <v>4164</v>
+      </c>
+      <c r="I72" s="3">
+        <v>5440</v>
+      </c>
       <c r="R72" s="2" t="s">
         <v>7</v>
       </c>
